--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_Gpsglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_Gpsglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="45" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -304,6 +304,30 @@
   </si>
   <si>
     <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>VI.2.00.---19.200527</t>
+  </si>
+  <si>
+    <t>Nâng cấp khay sim+FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1487,9 +1511,13 @@
         <v>65</v>
       </c>
       <c r="H10" s="48"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
       <c r="N10" s="1"/>
@@ -2905,13 +2933,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2923,6 +2944,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4737,13 +4765,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4755,6 +4776,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4765,8 +4793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4993,17 +5021,37 @@
         <v>65</v>
       </c>
       <c r="H6" s="48"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="39"/>
+      <c r="I6" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>91</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="T6" s="64"/>
       <c r="U6" s="66" t="s">
         <v>18</v>
@@ -5481,7 +5529,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -5758,7 +5806,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -5886,7 +5934,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -5950,7 +5998,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -6529,13 +6577,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6547,6 +6588,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8337,6 +8385,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8348,13 +8403,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10122,13 +10170,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10140,6 +10181,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_Gpsglobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang4/2.XuLyBH/XLBH2204_Gpsglobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="45" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -730,30 +730,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -771,6 +747,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1114,43 +1114,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1195,58 +1195,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1271,23 +1271,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,9 @@
       <c r="B6" s="61">
         <v>44669</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44679</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>71</v>
       </c>
@@ -1337,7 +1339,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1352,7 +1354,9 @@
       <c r="B7" s="61">
         <v>44669</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44679</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>71</v>
       </c>
@@ -1392,7 +1396,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1405,7 +1409,9 @@
       <c r="B8" s="61">
         <v>44669</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44679</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>71</v>
       </c>
@@ -1429,9 +1435,13 @@
       <c r="L8" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
+      <c r="O8" s="39" t="s">
+        <v>61</v>
+      </c>
       <c r="P8" s="1" t="s">
         <v>62</v>
       </c>
@@ -1443,7 +1453,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1466,9 @@
       <c r="B9" s="61">
         <v>44669</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44679</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>71</v>
       </c>
@@ -1478,15 +1490,25 @@
         <v>82</v>
       </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>84</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1499,7 +1521,9 @@
       <c r="B10" s="61">
         <v>44669</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44679</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>71</v>
       </c>
@@ -1518,16 +1542,28 @@
       <c r="K10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1556,7 +1592,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1585,7 +1621,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1616,7 +1652,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1645,7 +1681,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1710,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1703,7 +1739,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +1857,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -1853,7 +1889,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -2066,7 +2102,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -2290,7 +2326,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2354,7 +2390,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2472,7 +2508,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -2933,6 +2969,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2944,13 +2987,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2961,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2994,43 +3030,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -3075,58 +3111,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -3151,23 +3187,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3177,7 +3213,9 @@
       <c r="B6" s="61">
         <v>44669</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44679</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>73</v>
       </c>
@@ -3217,7 +3255,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3232,7 +3270,9 @@
       <c r="B7" s="61">
         <v>44669</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44679</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>73</v>
       </c>
@@ -3272,7 +3312,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3301,7 +3341,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3330,7 +3370,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3359,7 +3399,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3388,7 +3428,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3417,7 +3457,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3448,7 +3488,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3477,7 +3517,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3506,7 +3546,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3535,7 +3575,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4765,6 +4805,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4776,13 +4823,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4793,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showZeros="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4826,43 +4866,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -4907,58 +4947,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -4983,23 +5023,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="65" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,7 +5049,9 @@
       <c r="B6" s="61">
         <v>44669</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44679</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>72</v>
       </c>
@@ -5053,7 +5095,7 @@
         <v>94</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5084,7 +5126,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="64"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5113,7 +5155,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5142,7 +5184,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5171,7 +5213,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5200,7 +5242,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5229,7 +5271,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5260,7 +5302,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5289,7 +5331,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5318,7 +5360,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5347,7 +5389,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6577,6 +6619,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6588,13 +6637,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6605,8 +6647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6638,43 +6680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -6719,58 +6761,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="71" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="71" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="71" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
@@ -6795,23 +6837,23 @@
       <c r="I5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="63" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6821,7 +6863,9 @@
       <c r="B6" s="61">
         <v>44669</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44679</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -6861,7 +6905,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="62"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6892,7 +6936,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="62"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6921,7 +6965,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="62"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6950,7 +6994,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="62"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6979,7 +7023,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="62"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7008,7 +7052,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="62"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7037,7 +7081,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="62"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -7068,7 +7112,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="62"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7097,7 +7141,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="62"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -7126,7 +7170,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -7155,7 +7199,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8385,13 +8429,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8403,6 +8440,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8446,43 +8490,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="70"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -8527,58 +8571,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="74" t="s">
+      <c r="A4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="74" t="s">
+      <c r="K4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="74"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="66"/>
+      <c r="M4" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="66" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="73" t="s">
+      <c r="S4" s="79" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="74" t="s">
+      <c r="V4" s="66" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -8603,23 +8647,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="74"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="74"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="80"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="79"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8645,7 +8689,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="66" t="s">
+      <c r="U6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8676,7 +8720,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="75"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8705,7 +8749,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="67"/>
+      <c r="U8" s="75"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8734,7 +8778,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="67"/>
+      <c r="U9" s="75"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8763,7 +8807,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="75"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8792,7 +8836,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="67"/>
+      <c r="U11" s="75"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8821,7 +8865,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="66" t="s">
+      <c r="U12" s="74" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8852,7 +8896,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="67"/>
+      <c r="U13" s="75"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8881,7 +8925,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="67"/>
+      <c r="U14" s="75"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8910,7 +8954,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="67"/>
+      <c r="U15" s="75"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8939,7 +8983,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="68"/>
+      <c r="U16" s="76"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10170,6 +10214,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10181,13 +10232,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
